--- a/forexcg/docs/전문종합_v1.0_20210527.xlsx
+++ b/forexcg/docs/전문종합_v1.0_20210527.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwKang\git\for\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90CE3B6-C94D-4ED7-B31E-3DC01667EB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7BF7E2-149D-42F8-9347-FEBAAB076333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F269FF51-E25C-467A-80B7-F9DC1352846B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="226">
   <si>
     <t>업무 개시 요구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,7 +1076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +1134,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1155,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1588,288 +1597,309 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2185,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB55CC15-E922-4889-AF3A-6502B9E40070}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2199,786 +2229,799 @@
     <col min="4" max="4" width="216" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="51">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="48" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="89" t="s">
+    <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B9" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90"/>
-      <c r="B9" s="75" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="73"/>
+      <c r="B10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C10" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D10" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B11" s="56">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D11" s="57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D12" s="35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D13" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D14" s="35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D15" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D16" s="35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D17" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D18" s="35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B19" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C19" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D19" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="46"/>
-    </row>
-    <row r="21" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B23" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="90"/>
-      <c r="B22" s="75" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="73"/>
+      <c r="B24" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C24" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D24" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B25" s="56">
         <v>8</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D25" s="48" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B26" s="5">
         <v>6</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D26" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B27" s="55">
         <v>2</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C27" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D27" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="89" t="s">
+    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B30" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-    </row>
-    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="90"/>
-      <c r="B29" s="75" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="73"/>
+      <c r="B31" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C31" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D31" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B32" s="56">
         <v>8</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D32" s="48" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B33" s="5">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D33" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B34" s="55">
         <v>3</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C34" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D34" s="41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="89" t="s">
+    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="91"/>
-      <c r="B36" s="75" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="74"/>
+      <c r="B38" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C38" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="77" t="s">
+      <c r="D38" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="73">
+      <c r="B39" s="56">
         <v>7</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D39" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B40" s="5">
         <v>10</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D40" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B41" s="5">
         <v>4</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D41" s="35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+    <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B42" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C42" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D42" s="41" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="89" t="s">
+    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B45" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
-    </row>
-    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="90"/>
-      <c r="B44" s="75" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="73"/>
+      <c r="B46" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C46" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D46" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="73">
+      <c r="B47" s="56">
         <v>6</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D47" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B48" s="5">
         <v>2</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D48" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B49" s="5">
         <v>7</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D49" s="35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="51" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="82" t="s">
+    <row r="50" spans="1:4" s="34" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="89" t="s">
+    <row r="52" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B53" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="80"/>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="90"/>
-      <c r="B52" s="75" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="73"/>
+      <c r="B54" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C54" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D54" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="75" t="s">
+    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B55" s="59">
         <v>14</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C55" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D55" s="60" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="89" t="s">
+    <row r="57" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B58" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
-    </row>
-    <row r="57" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="90"/>
-      <c r="B57" s="75" t="s">
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="73"/>
+      <c r="B59" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C59" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="77" t="s">
+      <c r="D59" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+    <row r="60" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B58" s="83">
+      <c r="B60" s="66">
         <v>14</v>
       </c>
-      <c r="C58" s="76" t="s">
+      <c r="C60" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="77" t="s">
+      <c r="D60" s="60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="89" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="80"/>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="90"/>
-      <c r="B62" s="75" t="s">
+      <c r="B63" s="61"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="73"/>
+      <c r="B64" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="C64" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="77" t="s">
+      <c r="D64" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="84" t="s">
+    <row r="65" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="85">
+      <c r="B65" s="68">
         <v>14</v>
       </c>
-      <c r="C63" s="86" t="s">
+      <c r="C65" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="87" t="s">
+      <c r="D65" s="70" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B66" s="5">
         <v>14</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D66" s="39" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
+    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B65" s="72">
+      <c r="B67" s="55">
         <v>20</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C67" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D67" s="38" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="46"/>
-    </row>
-    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D67" s="46"/>
-    </row>
-    <row r="68" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="89" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="29"/>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D69" s="29"/>
+    </row>
+    <row r="70" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="78" t="s">
+      <c r="B70" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="80"/>
-    </row>
-    <row r="69" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="90"/>
-      <c r="B69" s="75" t="s">
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="73"/>
+      <c r="B71" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C71" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="77" t="s">
+      <c r="D71" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="73">
+      <c r="B72" s="56">
         <v>20</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D72" s="48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B73" s="5">
         <v>16</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D73" s="35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B74" s="5">
         <v>16</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D74" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="10" t="s">
+    <row r="75" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="61" t="s">
+      <c r="B75" s="55"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="44" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:4" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="89" t="s">
+    <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:4" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="B76" s="78"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="80"/>
-    </row>
-    <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="90"/>
-      <c r="B77" s="75" t="s">
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="73"/>
+      <c r="B79" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C79" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="77" t="s">
+      <c r="D79" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="149.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
+    <row r="80" spans="1:4" ht="149.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B78" s="83">
+      <c r="B80" s="66">
         <v>2</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="C80" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="88" t="s">
+      <c r="D80" s="71" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="83" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="85" spans="2:2" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A78:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3003,658 +3046,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="30" t="s">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="35" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="80"/>
+      <c r="E26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="30" t="s">
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="17" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="35" t="s">
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="21" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A17:A34"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B16"/>
@@ -3664,6 +3685,28 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A17:A34"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3696,11 +3739,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
@@ -3708,13 +3751,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="30">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
@@ -3722,16 +3765,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="30">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3742,10 +3785,10 @@
       <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3758,7 +3801,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="s">
@@ -3778,7 +3821,7 @@
       <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="32" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3881,42 +3924,42 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="29" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="46"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="29" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3927,10 +3970,10 @@
       <c r="B22">
         <v>14</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="29" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3941,10 +3984,10 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="29" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3955,10 +3998,10 @@
       <c r="B24">
         <v>16</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3969,10 +4012,10 @@
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="29" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3983,24 +4026,24 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>135</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="31" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4011,10 +4054,10 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="29" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4027,7 +4070,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
@@ -4060,7 +4103,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C37" t="s">
@@ -4121,7 +4164,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C44" t="s">
@@ -4182,7 +4225,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C51" t="s">
@@ -4244,7 +4287,7 @@
       <c r="C55" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4268,7 +4311,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C60" t="s">
@@ -4330,7 +4373,7 @@
       <c r="C64" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4358,7 +4401,7 @@
       <c r="C66" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="29" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4372,7 +4415,7 @@
       <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="29" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4382,7 +4425,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C71" t="s">
@@ -4457,7 +4500,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C79" t="s">
@@ -4491,8 +4534,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="50" t="s">
+    <row r="83" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
         <v>195</v>
       </c>
     </row>
